--- a/BunTek_roster.xlsx
+++ b/BunTek_roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\OneDrive\Uni Stuff\CSD 1400 SOFTWARE ENGINEERING PROJECT 1\Week 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NewDownloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDB4014-D522-4E25-BA86-23215C89551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE55319-03A2-45BA-90B3-BF18A2611962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Team Name</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>steven.k@digipen.edu</t>
+  </si>
+  <si>
+    <t>Kiat Beng Goh</t>
+  </si>
+  <si>
+    <t>kiatbeng.goh@digipen.edu</t>
   </si>
 </sst>
 </file>
@@ -435,12 +441,12 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -477,8 +483,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -504,6 +514,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D0E26505-9451-4419-B9F7-64A8F4B7B52D}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{D5D4B06E-6BEA-4132-91BA-1DD0C8544E26}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{AA42D620-623B-4DD3-B53B-FABE3BD7530A}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BunTek_roster.xlsx
+++ b/BunTek_roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NewDownloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT\Trimester 1\Software Engineering Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE55319-03A2-45BA-90B3-BF18A2611962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBB68EE-B9C8-4750-A35A-8455E164AA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Team Name</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>kiatbeng.goh@digipen.edu</t>
+  </si>
+  <si>
+    <t>Bryan Boh</t>
+  </si>
+  <si>
+    <t>b.boh@digipen.edu</t>
   </si>
 </sst>
 </file>
@@ -128,13 +134,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,16 +448,16 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,7 +473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -474,7 +481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -482,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -490,23 +497,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
     </row>
@@ -515,6 +526,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D0E26505-9451-4419-B9F7-64A8F4B7B52D}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{D5D4B06E-6BEA-4132-91BA-1DD0C8544E26}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{AA42D620-623B-4DD3-B53B-FABE3BD7530A}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{0916C788-D1C7-4DF2-ABC0-ACC6DF99BB1E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BunTek_roster.xlsx
+++ b/BunTek_roster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIT\Trimester 1\Software Engineering Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBB68EE-B9C8-4750-A35A-8455E164AA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D4AB761-CD5C-472D-8D3A-3616288BC14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Team Name</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>b.boh@digipen.edu</t>
+  </si>
+  <si>
+    <t>Cheong Ming Lun</t>
+  </si>
+  <si>
+    <t>m.cheong@digipen.edu</t>
   </si>
 </sst>
 </file>
@@ -448,16 +454,16 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -473,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -481,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -489,7 +495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -497,7 +503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -505,19 +511,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
     </row>
@@ -527,6 +537,7 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{D5D4B06E-6BEA-4132-91BA-1DD0C8544E26}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{AA42D620-623B-4DD3-B53B-FABE3BD7530A}"/>
     <hyperlink ref="B6" r:id="rId4" xr:uid="{0916C788-D1C7-4DF2-ABC0-ACC6DF99BB1E}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{B17E386D-326E-45A1-9EB6-38B8E239B9E2}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BunTek_roster.xlsx
+++ b/BunTek_roster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni Projects\BunTek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D4AB761-CD5C-472D-8D3A-3616288BC14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139C1B6E-FEF4-449F-9C29-6D825C7B3A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Team Name</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>m.cheong@digipen.edu</t>
+  </si>
+  <si>
+    <t>No Pic, sorry :(</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -148,6 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,16 +458,16 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -479,7 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -487,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -495,7 +499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -503,7 +507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -511,7 +515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -519,16 +523,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" s="5"/>
     </row>
   </sheetData>
